--- a/img/product/z-info.xlsx
+++ b/img/product/z-info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="555" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="1005" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>#</t>
   </si>
@@ -35,6 +35,102 @@
   </si>
   <si>
     <t>Air Jordan 1 Retro High OG sneakers</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 High FlyEase sneakers</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/uk/shopping/men/jordan-air-jordan-1-high-flyease-sneakers-item-17232902.aspx?storeid=11218</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 Retro High OG obsidian/university blue</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/uk/shopping/men/jordan-air-jordan-1-retro-high-og-obsidianuniversity-blue-item-14431181.aspx?storeid=11218</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 Retro High "University Blue" sneakers</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/uk/shopping/men/jordan-air-jordan-1-retro-high-university-blue-sneakers-item-15957834.aspx?storeid=11218</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 Retro High sneakers</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/uk/shopping/men/jordan-air-jordan-1-retro-high-sneakers-item-15624503.aspx?storeid=11218</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 high-top sneakers</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/uk/shopping/men/jordan-air-jordan-1-high-top-sneakers-item-17741457.aspx?storeid=11218</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 Retro High OG "Shadow 2.0" sneakers</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/uk/shopping/men/jordan-air-jordan-1-retro-high-og-shadow-20-sneakers-item-16820185.aspx?storeid=11218</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 Ret High OG Wings sneakers</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/uk/shopping/men/jordan-air-jordan-1-ret-high-og-wings-sneakers-item-13157703.aspx?storeid=11218</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 Retro High OG Sports Illustrated / A Star Is Born</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/uk/shopping/men/jordan-air-jordan-1-retro-high-og-sports-illustrated-a-star-is-born-item-13678261.aspx?storeid=11218</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/uk/shopping/men/jordan-air-jordan-1-high-og-nrg-item-13515448.aspx?storeid=11218</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 High OG NRG</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 Retro High OG NRG Not For Resale</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/uk/shopping/men/jordan-air-jordan-1-retro-high-og-nrg-not-for-resale-item-13515451.aspx?storeid=11218</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/uk/shopping/men/jordan-air-jordan-1-retro-high-og-defiant-yellow-item-14285986.aspx?storeid=11218</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 Retro High OG defiant yellow</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 High OG "Light Fusion Red" sneakers</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/uk/shopping/men/jordan-air-jordan-1-high-og-light-fusion-red-sneakers-item-16726005.aspx?storeid=11218</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/uk/shopping/men/jordan-air-jordan-1-high-cojp-midnight-navy-sneakers-item-15819564.aspx?storeid=11218</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 High CO.JP "Midnight Navy" sneakers</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 Retro High OG NRG sneakers</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/uk/shopping/men/jordan-air-jordan-1-retro-high-og-nrg-sneakers-item-17514304.aspx?storeid=11218</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 Retro High OG Euro gym red</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/uk/shopping/men/jordan-air-jordan-1-retro-high-og-euro-gym-red-item-13158190.aspx?storeid=11218</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 Retro High OG RE2PECT</t>
+  </si>
+  <si>
+    <t>https://www.farfetch.com/uk/shopping/men/jordan-air-jordan-1-retro-high-og-re2pect-item-13158286.aspx?storeid=11218</t>
   </si>
 </sst>
 </file>
@@ -50,14 +146,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,8 +155,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -83,7 +179,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -107,15 +203,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -156,20 +243,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -476,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="2">
         <v>1</v>
       </c>
@@ -512,128 +608,192 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="2">
         <v>3</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="2">
         <v>4</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="2">
         <v>5</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="2">
         <v>6</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="2">
         <v>7</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="2">
         <v>8</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="2">
         <v>9</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="2">
         <v>10</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="2">
         <v>11</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="2">
         <v>12</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="2">
         <v>13</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="2">
         <v>14</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="2">
         <v>15</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D19" s="2">
         <v>16</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D20" s="2">
         <v>17</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D21" s="2">
         <v>18</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="5"/>
+      <c r="E21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
